--- a/Textbook Companion/Chapter52/Practice Files/Cakes.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Cakes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +111,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -121,6 +134,1250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salespeople</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill dpi="0" rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                  <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                    <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>february</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A739-495B-838E-ECC0435DC86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="425874112"/>
+        <c:axId val="424037808"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>february</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2735900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2210271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2825548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3576132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3128575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3874198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2665368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2424844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2549544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A739-495B-838E-ECC0435DC86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="434018856"/>
+        <c:axId val="434024432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="425874112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424037808"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424037808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425874112"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434024432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434018856"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="434018856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="434024432"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E94AD50-AEC5-4DC5-9F00-17516F7984F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,20 +1642,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -409,139 +1667,140 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2735900</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2210271</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3004596</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2825548</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3576132</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>3128575</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>3874198</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2665368</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2833012</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
         <v>23</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>2424844</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2549544</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>3150120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>